--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il12b-Il12rb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il12b-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -85,10 +88,16 @@
     <t>Il12rb1</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.724675566006032</v>
+        <v>0.2137916666666667</v>
       </c>
       <c r="H2">
-        <v>0.724675566006032</v>
+        <v>0.641375</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.414702955315478</v>
+        <v>0.1353735</v>
       </c>
       <c r="N2">
-        <v>0.414702955315478</v>
+        <v>0.270747</v>
       </c>
       <c r="O2">
-        <v>0.1687559134340409</v>
+        <v>0.04105055407111536</v>
       </c>
       <c r="P2">
-        <v>0.1687559134340409</v>
+        <v>0.02891735738885385</v>
       </c>
       <c r="Q2">
-        <v>0.3005250988676182</v>
+        <v>0.0289417261875</v>
       </c>
       <c r="R2">
-        <v>0.3005250988676182</v>
+        <v>0.173650357125</v>
       </c>
       <c r="S2">
-        <v>0.1687559134340409</v>
+        <v>0.007718495454253036</v>
       </c>
       <c r="T2">
-        <v>0.1687559134340409</v>
+        <v>0.005437161485523757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.724675566006032</v>
+        <v>0.2137916666666667</v>
       </c>
       <c r="H3">
-        <v>0.724675566006032</v>
+        <v>0.641375</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.34777749289724</v>
+        <v>0.4661060000000001</v>
       </c>
       <c r="N3">
-        <v>1.34777749289724</v>
+        <v>1.398318</v>
       </c>
       <c r="O3">
-        <v>0.5484538246096902</v>
+        <v>0.1413416182330463</v>
       </c>
       <c r="P3">
-        <v>0.5484538246096902</v>
+        <v>0.1493485111534656</v>
       </c>
       <c r="Q3">
-        <v>0.9767014175154981</v>
+        <v>0.09964957858333336</v>
       </c>
       <c r="R3">
-        <v>0.9767014175154981</v>
+        <v>0.8968462072500002</v>
       </c>
       <c r="S3">
-        <v>0.5484538246096902</v>
+        <v>0.02657563734556664</v>
       </c>
       <c r="T3">
-        <v>0.5484538246096902</v>
+        <v>0.02808112656507592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +652,619 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2137916666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.641375</v>
+      </c>
+      <c r="I4">
+        <v>0.1880241480025247</v>
+      </c>
+      <c r="J4">
+        <v>0.1880241480025247</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1538896666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.461669</v>
+      </c>
+      <c r="O4">
+        <v>0.04666538194318622</v>
+      </c>
+      <c r="P4">
+        <v>0.04930893959436215</v>
+      </c>
+      <c r="Q4">
+        <v>0.03290032831944445</v>
+      </c>
+      <c r="R4">
+        <v>0.296102954875</v>
+      </c>
+      <c r="S4">
+        <v>0.008774218681079988</v>
+      </c>
+      <c r="T4">
+        <v>0.009271271356137898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2137916666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.641375</v>
+      </c>
+      <c r="I5">
+        <v>0.1880241480025247</v>
+      </c>
+      <c r="J5">
+        <v>0.1880241480025247</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.407309</v>
+      </c>
+      <c r="N5">
+        <v>4.221927</v>
+      </c>
+      <c r="O5">
+        <v>0.4267512784944415</v>
+      </c>
+      <c r="P5">
+        <v>0.4509264070466212</v>
+      </c>
+      <c r="Q5">
+        <v>0.300870936625</v>
+      </c>
+      <c r="R5">
+        <v>2.707838429625</v>
+      </c>
+      <c r="S5">
+        <v>0.08023954554790549</v>
+      </c>
+      <c r="T5">
+        <v>0.0847850534967806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2137916666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.641375</v>
+      </c>
+      <c r="I6">
+        <v>0.1880241480025247</v>
+      </c>
+      <c r="J6">
+        <v>0.1880241480025247</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.7400273333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.220082</v>
+      </c>
+      <c r="O6">
+        <v>0.224405308728099</v>
+      </c>
+      <c r="P6">
+        <v>0.2371176952156863</v>
+      </c>
+      <c r="Q6">
+        <v>0.1582116769722222</v>
+      </c>
+      <c r="R6">
+        <v>1.42390509275</v>
+      </c>
+      <c r="S6">
+        <v>0.04219361698084433</v>
+      </c>
+      <c r="T6">
+        <v>0.04458385261925175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2137916666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.641375</v>
+      </c>
+      <c r="I7">
+        <v>0.1880241480025247</v>
+      </c>
+      <c r="J7">
+        <v>0.1880241480025247</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.395021</v>
+      </c>
+      <c r="N7">
+        <v>0.790042</v>
+      </c>
+      <c r="O7">
+        <v>0.1197858585301116</v>
+      </c>
+      <c r="P7">
+        <v>0.0843810896010108</v>
+      </c>
+      <c r="Q7">
+        <v>0.08445219795833335</v>
+      </c>
+      <c r="R7">
+        <v>0.5067131877500001</v>
+      </c>
+      <c r="S7">
+        <v>0.02252263399287518</v>
+      </c>
+      <c r="T7">
+        <v>0.01586568247975475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.724675566006032</v>
-      </c>
-      <c r="H4">
-        <v>0.724675566006032</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.694932432181347</v>
-      </c>
-      <c r="N4">
-        <v>0.694932432181347</v>
-      </c>
-      <c r="O4">
-        <v>0.2827902619562689</v>
-      </c>
-      <c r="P4">
-        <v>0.2827902619562689</v>
-      </c>
-      <c r="Q4">
-        <v>0.5036005536269661</v>
-      </c>
-      <c r="R4">
-        <v>0.5036005536269661</v>
-      </c>
-      <c r="S4">
-        <v>0.2827902619562689</v>
-      </c>
-      <c r="T4">
-        <v>0.2827902619562689</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H8">
+        <v>2.769756</v>
+      </c>
+      <c r="I8">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J8">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.1353735</v>
+      </c>
+      <c r="N8">
+        <v>0.270747</v>
+      </c>
+      <c r="O8">
+        <v>0.04105055407111536</v>
+      </c>
+      <c r="P8">
+        <v>0.02891735738885385</v>
+      </c>
+      <c r="Q8">
+        <v>0.124983854622</v>
+      </c>
+      <c r="R8">
+        <v>0.7499031277320001</v>
+      </c>
+      <c r="S8">
+        <v>0.03333205861686232</v>
+      </c>
+      <c r="T8">
+        <v>0.02348019590333009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.769756</v>
+      </c>
+      <c r="I9">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J9">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4661060000000001</v>
+      </c>
+      <c r="N9">
+        <v>1.398318</v>
+      </c>
+      <c r="O9">
+        <v>0.1413416182330463</v>
+      </c>
+      <c r="P9">
+        <v>0.1493485111534656</v>
+      </c>
+      <c r="Q9">
+        <v>0.4303332967120001</v>
+      </c>
+      <c r="R9">
+        <v>3.872999670408001</v>
+      </c>
+      <c r="S9">
+        <v>0.1147659808874797</v>
+      </c>
+      <c r="T9">
+        <v>0.1212673845883896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.769756</v>
+      </c>
+      <c r="I10">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J10">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1538896666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.461669</v>
+      </c>
+      <c r="O10">
+        <v>0.04666538194318622</v>
+      </c>
+      <c r="P10">
+        <v>0.04930893959436215</v>
+      </c>
+      <c r="Q10">
+        <v>0.1420789425293333</v>
+      </c>
+      <c r="R10">
+        <v>1.278710482764</v>
+      </c>
+      <c r="S10">
+        <v>0.03789116326210623</v>
+      </c>
+      <c r="T10">
+        <v>0.04003766823822425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.769756</v>
+      </c>
+      <c r="I11">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J11">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.407309</v>
+      </c>
+      <c r="N11">
+        <v>4.221927</v>
+      </c>
+      <c r="O11">
+        <v>0.4267512784944415</v>
+      </c>
+      <c r="P11">
+        <v>0.4509264070466212</v>
+      </c>
+      <c r="Q11">
+        <v>1.299300848868</v>
+      </c>
+      <c r="R11">
+        <v>11.693707639812</v>
+      </c>
+      <c r="S11">
+        <v>0.346511732946536</v>
+      </c>
+      <c r="T11">
+        <v>0.3661413535498407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.769756</v>
+      </c>
+      <c r="I12">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J12">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7400273333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.220082</v>
+      </c>
+      <c r="O12">
+        <v>0.224405308728099</v>
+      </c>
+      <c r="P12">
+        <v>0.2371176952156863</v>
+      </c>
+      <c r="Q12">
+        <v>0.6832317155546668</v>
+      </c>
+      <c r="R12">
+        <v>6.149085439992001</v>
+      </c>
+      <c r="S12">
+        <v>0.1822116917472547</v>
+      </c>
+      <c r="T12">
+        <v>0.1925338425964346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.769756</v>
+      </c>
+      <c r="I13">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J13">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.395021</v>
+      </c>
+      <c r="N13">
+        <v>0.790042</v>
+      </c>
+      <c r="O13">
+        <v>0.1197858585301116</v>
+      </c>
+      <c r="P13">
+        <v>0.0843810896010108</v>
+      </c>
+      <c r="Q13">
+        <v>0.364703928292</v>
+      </c>
+      <c r="R13">
+        <v>2.188223569752</v>
+      </c>
+      <c r="S13">
+        <v>0.09726322453723639</v>
+      </c>
+      <c r="T13">
+        <v>0.06851540712125605</v>
       </c>
     </row>
   </sheetData>
